--- a/Analyzed/try2/data_2009.xlsx
+++ b/Analyzed/try2/data_2009.xlsx
@@ -541,13 +541,13 @@
         <v>1735.771</v>
       </c>
       <c r="L2">
-        <v>71.3</v>
+        <v>2495.5</v>
       </c>
       <c r="M2">
         <v>59.10890926989126</v>
       </c>
       <c r="N2">
-        <v>40.74</v>
+        <v>1181.46</v>
       </c>
       <c r="O2">
         <v>969.73</v>
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="AC2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -632,13 +632,13 @@
         <v>2735.015</v>
       </c>
       <c r="L3">
-        <v>74</v>
+        <v>2590</v>
       </c>
       <c r="M3">
         <v>69.09278542536279</v>
       </c>
       <c r="N3">
-        <v>69.17</v>
+        <v>2005.93</v>
       </c>
       <c r="O3">
         <v>1087.22</v>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>1288.522</v>
       </c>
       <c r="L4">
-        <v>70.90000000000001</v>
+        <v>2481.5</v>
       </c>
       <c r="M4">
         <v>60.81803106650089</v>
       </c>
       <c r="N4">
-        <v>58.84</v>
+        <v>1706.36</v>
       </c>
       <c r="O4">
         <v>1026.58</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>1238.138</v>
       </c>
       <c r="L5">
-        <v>64.60000000000001</v>
+        <v>2261</v>
       </c>
       <c r="M5">
         <v>66.17213421928356</v>
       </c>
       <c r="N5">
-        <v>19.06</v>
+        <v>552.74</v>
       </c>
       <c r="O5">
         <v>947.79</v>
@@ -853,10 +853,10 @@
         <v>4</v>
       </c>
       <c r="Y5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <v>4</v>
@@ -905,13 +905,13 @@
         <v>1661.7</v>
       </c>
       <c r="L6">
-        <v>69.3</v>
+        <v>2425.5</v>
       </c>
       <c r="M6">
         <v>61.95424199646707</v>
       </c>
       <c r="N6">
-        <v>49.6</v>
+        <v>1438.4</v>
       </c>
       <c r="O6">
         <v>1014.35</v>
@@ -944,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         <v>1123.522</v>
       </c>
       <c r="L7">
-        <v>69.8</v>
+        <v>2443</v>
       </c>
       <c r="M7">
         <v>61.34092355861669</v>
       </c>
       <c r="N7">
-        <v>8.570000000000002</v>
+        <v>248.53</v>
       </c>
       <c r="O7">
         <v>1026.46</v>
@@ -1035,10 +1035,10 @@
         <v>2</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA7">
         <v>3</v>
@@ -1047,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="AC7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1087,13 +1087,13 @@
         <v>1071.807</v>
       </c>
       <c r="L8">
-        <v>67.10000000000001</v>
+        <v>2348.5</v>
       </c>
       <c r="M8">
         <v>69.92198681761262</v>
       </c>
       <c r="N8">
-        <v>50.61000000000001</v>
+        <v>1467.69</v>
       </c>
       <c r="O8">
         <v>1232.04</v>
@@ -1126,10 +1126,10 @@
         <v>4</v>
       </c>
       <c r="Y8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA8">
         <v>3</v>
@@ -1138,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="AC8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1178,13 +1178,13 @@
         <v>1325.882</v>
       </c>
       <c r="L9">
-        <v>65.3</v>
+        <v>2285.5</v>
       </c>
       <c r="M9">
         <v>64.11475332404746</v>
       </c>
       <c r="N9">
-        <v>23.5</v>
+        <v>681.5</v>
       </c>
       <c r="O9">
         <v>1033.92</v>
@@ -1217,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9">
         <v>2</v>
@@ -1229,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="AC9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
